--- a/wksp_alumbrado/res/matriz.xlsx
+++ b/wksp_alumbrado/res/matriz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_alumbrado\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{767198EC-662E-4BF7-8C4E-D61104E62CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4A02A-DE17-427A-9E46-F1BCF065AB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F70B9D31-D43A-478D-986E-892ABE9A0A37}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F70B9D31-D43A-478D-986E-892ABE9A0A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="228">
   <si>
     <t>TAG</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>DJ3</t>
+  </si>
+  <si>
+    <t>Sector Norte</t>
+  </si>
+  <si>
+    <t>Sector Sur</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1067,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1072,6 +1116,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C346078F-B0A1-4FB0-B2B8-A5B0C1EDEA90}" name="Tabla1" displayName="Tabla1" ref="A1:D417" totalsRowShown="0">
+  <autoFilter ref="A1:D417" xr:uid="{C346078F-B0A1-4FB0-B2B8-A5B0C1EDEA90}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6733AF6A-65D2-4E45-B4CD-0DB73B60BA7A}" name="TAG" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{765E6AA7-1DD6-469C-BBB6-392B27E87A81}" name="Area"/>
+    <tableColumn id="3" xr3:uid="{2CBF5092-2A18-40E6-A5A9-1D16A46D7550}" name="Tipo"/>
+    <tableColumn id="4" xr3:uid="{391C96A8-1C15-4BC6-995C-17E2B00BAD5C}" name="Ubicación" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1373,11 +1430,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544D0658-8631-475A-B365-E93AA23628DA}">
   <dimension ref="A1:D418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F409" sqref="F409"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1403,6 +1463,9 @@
       <c r="C2" t="s">
         <v>76</v>
       </c>
+      <c r="D2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -1414,6 +1477,9 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1425,6 +1491,9 @@
       <c r="C4" t="s">
         <v>76</v>
       </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1436,6 +1505,9 @@
       <c r="C5" t="s">
         <v>76</v>
       </c>
+      <c r="D5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1447,6 +1519,9 @@
       <c r="C6" t="s">
         <v>76</v>
       </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1458,6 +1533,9 @@
       <c r="C7" t="s">
         <v>76</v>
       </c>
+      <c r="D7" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1469,6 +1547,9 @@
       <c r="C8" t="s">
         <v>76</v>
       </c>
+      <c r="D8" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1480,6 +1561,9 @@
       <c r="C9" t="s">
         <v>76</v>
       </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1491,6 +1575,9 @@
       <c r="C10" t="s">
         <v>76</v>
       </c>
+      <c r="D10" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1502,6 +1589,9 @@
       <c r="C11" t="s">
         <v>76</v>
       </c>
+      <c r="D11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1513,6 +1603,9 @@
       <c r="C12" t="s">
         <v>76</v>
       </c>
+      <c r="D12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1524,6 +1617,9 @@
       <c r="C13" t="s">
         <v>76</v>
       </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1535,6 +1631,9 @@
       <c r="C14" t="s">
         <v>76</v>
       </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1546,6 +1645,9 @@
       <c r="C15" t="s">
         <v>76</v>
       </c>
+      <c r="D15" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1557,8 +1659,11 @@
       <c r="C16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1568,8 +1673,11 @@
       <c r="C17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1579,8 +1687,11 @@
       <c r="C18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1590,8 +1701,11 @@
       <c r="C19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1601,8 +1715,11 @@
       <c r="C20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1612,8 +1729,11 @@
       <c r="C21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1623,8 +1743,11 @@
       <c r="C22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1634,8 +1757,11 @@
       <c r="C23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1645,8 +1771,11 @@
       <c r="C24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1656,8 +1785,11 @@
       <c r="C25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1667,8 +1799,11 @@
       <c r="C26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1678,8 +1813,11 @@
       <c r="C27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1689,8 +1827,11 @@
       <c r="C28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1700,8 +1841,11 @@
       <c r="C29" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1711,8 +1855,11 @@
       <c r="C30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1722,8 +1869,11 @@
       <c r="C31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1733,8 +1883,11 @@
       <c r="C32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1744,8 +1897,11 @@
       <c r="C33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1755,8 +1911,11 @@
       <c r="C34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1766,8 +1925,11 @@
       <c r="C35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1939,11 @@
       <c r="C36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1788,8 +1953,11 @@
       <c r="C37" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1799,8 +1967,11 @@
       <c r="C38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1810,8 +1981,11 @@
       <c r="C39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1821,8 +1995,11 @@
       <c r="C40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -1832,8 +2009,11 @@
       <c r="C41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1843,8 +2023,11 @@
       <c r="C42" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1854,8 +2037,11 @@
       <c r="C43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1865,8 +2051,11 @@
       <c r="C44" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1876,8 +2065,11 @@
       <c r="C45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1887,8 +2079,11 @@
       <c r="C46" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -1898,8 +2093,11 @@
       <c r="C47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1909,8 +2107,11 @@
       <c r="C48" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1920,8 +2121,11 @@
       <c r="C49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -1931,8 +2135,11 @@
       <c r="C50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -1942,8 +2149,11 @@
       <c r="C51" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -1953,8 +2163,11 @@
       <c r="C52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -1964,8 +2177,11 @@
       <c r="C53" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -1975,8 +2191,11 @@
       <c r="C54" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
@@ -1986,8 +2205,11 @@
       <c r="C55" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -1997,8 +2219,11 @@
       <c r="C56" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
@@ -2008,8 +2233,11 @@
       <c r="C57" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>57</v>
       </c>
@@ -2019,8 +2247,11 @@
       <c r="C58" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>58</v>
       </c>
@@ -2030,8 +2261,11 @@
       <c r="C59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>59</v>
       </c>
@@ -2041,8 +2275,11 @@
       <c r="C60" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
@@ -2052,8 +2289,11 @@
       <c r="C61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>61</v>
       </c>
@@ -2063,8 +2303,11 @@
       <c r="C62" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>62</v>
       </c>
@@ -2074,8 +2317,11 @@
       <c r="C63" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>63</v>
       </c>
@@ -2084,6 +2330,9 @@
       </c>
       <c r="C64" t="s">
         <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2096,6 +2345,9 @@
       <c r="C65" t="s">
         <v>76</v>
       </c>
+      <c r="D65" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
@@ -2107,6 +2359,9 @@
       <c r="C66" t="s">
         <v>76</v>
       </c>
+      <c r="D66" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
@@ -2118,6 +2373,9 @@
       <c r="C67" t="s">
         <v>76</v>
       </c>
+      <c r="D67" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -2129,6 +2387,9 @@
       <c r="C68" t="s">
         <v>76</v>
       </c>
+      <c r="D68" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -2140,6 +2401,9 @@
       <c r="C69" t="s">
         <v>76</v>
       </c>
+      <c r="D69" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
@@ -2151,6 +2415,9 @@
       <c r="C70" t="s">
         <v>76</v>
       </c>
+      <c r="D70" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
@@ -2162,6 +2429,9 @@
       <c r="C71" t="s">
         <v>76</v>
       </c>
+      <c r="D71" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
@@ -2173,6 +2443,9 @@
       <c r="C72" t="s">
         <v>76</v>
       </c>
+      <c r="D72" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
@@ -2184,6 +2457,9 @@
       <c r="C73" t="s">
         <v>76</v>
       </c>
+      <c r="D73" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
@@ -6824,5 +7100,8 @@
     <row r="418" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>